--- a/biology/Neurosciences/Serafima_Brioussova/Serafima_Brioussova.xlsx
+++ b/biology/Neurosciences/Serafima_Brioussova/Serafima_Brioussova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Serafima Brioussova, née Serafima Semionovna Sidorova (Moscou, 31 décembre 1894  - 1958) est la première femme neurochirurgienne au monde[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Serafima Brioussova, née Serafima Semionovna Sidorova (Moscou, 31 décembre 1894  - 1958) est la première femme neurochirurgienne au monde,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle étudie la médecine dans sa ville natale de 1917 à 1923. Elle commence son internat en chirurgie générale en 1924 et, en 1928, est invitée par le père de la neurochirurgie russe Nikolaï Bourdenko à rejoindre son équipe.
 Elle soutient une thèse de science en 1939 et est nommée professeure en 1941. En 1951, elle publie l'ouvrage de référence en langue russe Angiographie cérébrale. Elle a également étudié la perception de la douleur de la dure-mère, les traumatismes crâniens et la pression intracrânienne chez les trépanés.
@@ -543,9 +557,11 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est l'épouse de l'archéologue Alexandre Brioussov, et la belle-sœur du poète symboliste Valéri Brioussov. Leur fils se prénomme Boris (1933-2003)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est l'épouse de l'archéologue Alexandre Brioussov, et la belle-sœur du poète symboliste Valéri Brioussov. Leur fils se prénomme Boris (1933-2003).
 </t>
         </is>
       </c>
